--- a/res.xlsx
+++ b/res.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Tuổi</t>
+          <t>Tuổi l</t>
         </is>
       </c>
     </row>
